--- a/Tester Results/TEST_SEX_RANGE_ACROSS_DATES.xlsx
+++ b/Tester Results/TEST_SEX_RANGE_ACROSS_DATES.xlsx
@@ -487,22 +487,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2204</v>
+        <v>2237</v>
       </c>
       <c r="C2" t="n">
-        <v>0.005177618545478217</v>
+        <v>0.004003975727820121</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.8991769547325104</v>
+        <v>-0.9218106995884774</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.2736625514403292</v>
+        <v>-0.2818930041152263</v>
       </c>
       <c r="F2" t="n">
-        <v>3763.752459876543</v>
+        <v>3762.502487654325</v>
       </c>
       <c r="G2" t="n">
-        <v>5741.291824074073</v>
+        <v>5809.321388888889</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -522,22 +522,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2636.5</v>
+        <v>2664.166666666667</v>
       </c>
       <c r="C3" t="n">
-        <v>9.470275994163439e-08</v>
+        <v>4.137684607663376e-08</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.9567901234567902</v>
+        <v>-0.9732510288065843</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.5733882030178326</v>
+        <v>-0.5905349794238683</v>
       </c>
       <c r="F3" t="n">
-        <v>59.12571913580246</v>
+        <v>60.19589197530862</v>
       </c>
       <c r="G3" t="n">
-        <v>81.00806481481484</v>
+        <v>82.51222222222225</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -557,22 +557,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2647.5</v>
+        <v>2670.5</v>
       </c>
       <c r="C4" t="n">
-        <v>3.323546182342756e-08</v>
+        <v>1.797490300392851e-08</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.9657064471879286</v>
+        <v>-0.9787379972565158</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.5949931412894376</v>
+        <v>-0.6073388203017833</v>
       </c>
       <c r="F4" t="n">
-        <v>53.91857098765431</v>
+        <v>55.2799290123457</v>
       </c>
       <c r="G4" t="n">
-        <v>73.33494135802469</v>
+        <v>75.19940740740741</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -592,22 +592,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2505.833333333333</v>
+        <v>2536.166666666667</v>
       </c>
       <c r="C5" t="n">
-        <v>2.322686731585555e-06</v>
+        <v>1.500044482234237e-06</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.9513031550068587</v>
+        <v>-0.9698216735253773</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.5020576131687242</v>
+        <v>-0.5123456790123457</v>
       </c>
       <c r="F5" t="n">
-        <v>19.9747962962963</v>
+        <v>20.13209567901237</v>
       </c>
       <c r="G5" t="n">
-        <v>26.92399382716048</v>
+        <v>27.42148148148146</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -627,22 +627,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1531.333333333333</v>
+        <v>1524.166666666667</v>
       </c>
       <c r="C6" t="n">
-        <v>0.108532274582765</v>
+        <v>0.1217966800848773</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.4650205761316872</v>
+        <v>-0.4430727023319616</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1755829903978052</v>
+        <v>0.1831275720164609</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.312345679012346</v>
+        <v>-1.110493827160496</v>
       </c>
       <c r="G6" t="n">
-        <v>1.495679012345679</v>
+        <v>1.780246913580246</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -662,22 +662,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1283.166666666667</v>
+        <v>1267.666666666667</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06852526924462392</v>
+        <v>0.0677074872532334</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.1536351165980796</v>
+        <v>-0.1673525377229081</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3004115226337448</v>
+        <v>0.3707133058984911</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.276543209876543</v>
+        <v>-1.306790123456789</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4580246913580233</v>
+        <v>0.7339506172839521</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -697,22 +697,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2637.166666666667</v>
+        <v>2664.166666666667</v>
       </c>
       <c r="C8" t="n">
-        <v>1.027222793661411e-07</v>
+        <v>4.42417181142214e-08</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.9578189300411524</v>
+        <v>-0.9759945130315502</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.5716735253772292</v>
+        <v>-0.5891632373113855</v>
       </c>
       <c r="F8" t="n">
-        <v>60.04753086419756</v>
+        <v>61.07962962962966</v>
       </c>
       <c r="G8" t="n">
-        <v>81.23024691358025</v>
+        <v>82.85648148148147</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -732,22 +732,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1104.5</v>
+        <v>1087.666666666667</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1549259371573529</v>
+        <v>0.1609399393936459</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.08744855967078191</v>
+        <v>-0.08058984910836764</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6045953360768175</v>
+        <v>0.6059670781893004</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.037654320987658</v>
+        <v>-1.046296296296299</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2487654320987644</v>
+        <v>0.2765432098765412</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -767,22 +767,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>636</v>
+        <v>593.6666666666666</v>
       </c>
       <c r="C10" t="n">
-        <v>6.814324664904044e-07</v>
+        <v>1.550209103029177e-07</v>
       </c>
       <c r="D10" t="n">
-        <v>0.541838134430727</v>
+        <v>0.575445816186557</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5960219478737998</v>
+        <v>0.6200274348422496</v>
       </c>
       <c r="F10" t="n">
-        <v>-49.31295370370367</v>
+        <v>-50.29746913580246</v>
       </c>
       <c r="G10" t="n">
-        <v>-20.46304320987653</v>
+        <v>-21.61515123456792</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
